--- a/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
@@ -451,547 +451,737 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>090010</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>大成中证红利指数A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>94.38</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.70</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>100032</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>161907</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>94.92</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.78</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>501307</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>93.66</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.27</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>501308</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>93.66</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1.27</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>510880</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证红利ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>98.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005125</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008682</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>138.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>46.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8676</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501029</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501059</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009439</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501072</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100.47</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>501059</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>97.42</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>004192</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>招商中证500指数增强A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1444,15 +1784,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>98.94</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2.14</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>004193</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>招商中证500指数增强C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>009439</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>501072</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>100.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1999,4 +2000,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2512,4 +2513,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5324</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1867</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2497</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商信用增强债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001752</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商信用增强债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2987,4 +2988,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2996,7 +2997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3007,17 +3008,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3027,14 +3048,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>8.15</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="3">
@@ -3043,14 +3138,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>6.68</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="4">
@@ -3059,14 +3154,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>7.8</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="5">
@@ -3075,13 +3170,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3091,7 +3092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3102,17 +3103,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3122,14 +3143,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.96</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -3138,14 +3233,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>8.15</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="4">
@@ -3154,14 +3249,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>6.68</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="5">
@@ -3170,14 +3265,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>7.8</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="6">
@@ -3186,13 +3281,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,11 +488,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0.03</v>
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>3.96</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>8.15</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>6.68</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>7.8</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.8</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,36 +656,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>970042</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>国海量化优选一年持有股票C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.70</t>
+          <t>87.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -733,36 +788,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>177.74</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.64</t>
+          <t>62.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.9636</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -771,6 +826,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1244,7 +1393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1756,7 +1905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2572,7 +2721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601003-柳钢股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,11 +505,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0.03</v>
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3.96</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>8.15</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>6.68</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>7.8</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.8</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.31</t>
+          <t>90.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.31</t>
+          <t>90.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,36 +805,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>970042</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>国海量化优选一年持有股票C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.70</t>
+          <t>87.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -882,36 +937,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>177.74</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.64</t>
+          <t>62.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.9636</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -920,6 +975,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1393,7 +1542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1905,7 +2054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2721,7 +2870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
